--- a/Excel-XLSX/UN-POL.xlsx
+++ b/Excel-XLSX/UN-POL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="1634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="1658">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>E5z5u0</t>
+    <t>2dDPNg</t>
   </si>
   <si>
     <t>1991</t>
@@ -4674,6 +4674,12 @@
     <t>1214</t>
   </si>
   <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
     <t>1215</t>
   </si>
   <si>
@@ -4683,15 +4689,15 @@
     <t>1217</t>
   </si>
   <si>
+    <t>1218</t>
+  </si>
+  <si>
     <t>Argentina</t>
   </si>
   <si>
     <t>ARG</t>
   </si>
   <si>
-    <t>1218</t>
-  </si>
-  <si>
     <t>1219</t>
   </si>
   <si>
@@ -4707,10 +4713,10 @@
     <t>1223</t>
   </si>
   <si>
-    <t>8794</t>
-  </si>
-  <si>
-    <t>1740</t>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>BEN</t>
   </si>
   <si>
     <t>1224</t>
@@ -4722,6 +4728,12 @@
     <t>1226</t>
   </si>
   <si>
+    <t>10035</t>
+  </si>
+  <si>
+    <t>2085</t>
+  </si>
+  <si>
     <t>1227</t>
   </si>
   <si>
@@ -4737,6 +4749,15 @@
     <t>1231</t>
   </si>
   <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>CHD</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
     <t>1232</t>
   </si>
   <si>
@@ -4752,6 +4773,15 @@
     <t>1236</t>
   </si>
   <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>COI</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
     <t>1237</t>
   </si>
   <si>
@@ -4827,48 +4857,45 @@
     <t>1261</t>
   </si>
   <si>
+    <t>1262</t>
+  </si>
+  <si>
+    <t>1263</t>
+  </si>
+  <si>
+    <t>1265</t>
+  </si>
+  <si>
+    <t>1266</t>
+  </si>
+  <si>
+    <t>1267</t>
+  </si>
+  <si>
+    <t>1268</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>MOZ</t>
+  </si>
+  <si>
+    <t>1269</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>1271</t>
+  </si>
+  <si>
     <t>New Zealand</t>
   </si>
   <si>
     <t>NZL</t>
   </si>
   <si>
-    <t>1262</t>
-  </si>
-  <si>
-    <t>1263</t>
-  </si>
-  <si>
-    <t>1265</t>
-  </si>
-  <si>
-    <t>2845</t>
-  </si>
-  <si>
-    <t>2837</t>
-  </si>
-  <si>
-    <t>1266</t>
-  </si>
-  <si>
-    <t>1267</t>
-  </si>
-  <si>
-    <t>1268</t>
-  </si>
-  <si>
-    <t>1269</t>
-  </si>
-  <si>
-    <t>1270</t>
-  </si>
-  <si>
-    <t>1487</t>
-  </si>
-  <si>
-    <t>1271</t>
-  </si>
-  <si>
     <t>1272</t>
   </si>
   <si>
@@ -4881,6 +4908,12 @@
     <t>1275</t>
   </si>
   <si>
+    <t>2911</t>
+  </si>
+  <si>
+    <t>3062</t>
+  </si>
+  <si>
     <t>1276</t>
   </si>
   <si>
@@ -4896,21 +4929,15 @@
     <t>1280</t>
   </si>
   <si>
-    <t>963859</t>
-  </si>
-  <si>
-    <t>2258</t>
-  </si>
-  <si>
-    <t>15300</t>
-  </si>
-  <si>
     <t>1281</t>
   </si>
   <si>
     <t>1282</t>
   </si>
   <si>
+    <t>1486</t>
+  </si>
+  <si>
     <t>1283</t>
   </si>
   <si>
@@ -4918,6 +4945,51 @@
   </si>
   <si>
     <t>1285</t>
+  </si>
+  <si>
+    <t>1286</t>
+  </si>
+  <si>
+    <t>1287</t>
+  </si>
+  <si>
+    <t>1288</t>
+  </si>
+  <si>
+    <t>1289</t>
+  </si>
+  <si>
+    <t>1290</t>
+  </si>
+  <si>
+    <t>1291</t>
+  </si>
+  <si>
+    <t>1292</t>
+  </si>
+  <si>
+    <t>991223</t>
+  </si>
+  <si>
+    <t>3448</t>
+  </si>
+  <si>
+    <t>39000</t>
+  </si>
+  <si>
+    <t>1293</t>
+  </si>
+  <si>
+    <t>1294</t>
+  </si>
+  <si>
+    <t>1295</t>
+  </si>
+  <si>
+    <t>1296</t>
+  </si>
+  <si>
+    <t>1297</t>
   </si>
 </sst>
 </file>
@@ -5302,7 +5374,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1286"/>
+  <dimension ref="A1:V1298"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -87835,10 +87907,10 @@
         <v>31</v>
       </c>
       <c r="N1214" s="2" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="O1214" s="2" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="P1214" s="2" t="s">
         <v>33</v>
@@ -87879,16 +87951,16 @@
         <v>1550</v>
       </c>
       <c r="F1215" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G1215" s="1" t="s">
-        <v>70</v>
+        <v>1552</v>
       </c>
       <c r="H1215" s="1" t="s">
-        <v>71</v>
+        <v>1553</v>
       </c>
       <c r="I1215" s="1" t="s">
-        <v>72</v>
+        <v>1553</v>
       </c>
       <c r="J1215" s="2" t="s">
         <v>29</v>
@@ -87903,10 +87975,10 @@
         <v>31</v>
       </c>
       <c r="N1215" s="2" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="O1215" s="2" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="P1215" s="2" t="s">
         <v>33</v>
@@ -87941,22 +88013,22 @@
         <v>22</v>
       </c>
       <c r="D1216" s="2" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="E1216" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1216" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G1216" s="1" t="s">
-        <v>281</v>
+        <v>70</v>
       </c>
       <c r="H1216" s="1" t="s">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="I1216" s="1" t="s">
-        <v>283</v>
+        <v>72</v>
       </c>
       <c r="J1216" s="2" t="s">
         <v>29</v>
@@ -87971,10 +88043,10 @@
         <v>31</v>
       </c>
       <c r="N1216" s="2" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="O1216" s="2" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="P1216" s="2" t="s">
         <v>33</v>
@@ -88009,22 +88081,22 @@
         <v>22</v>
       </c>
       <c r="D1217" s="2" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="E1217" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1217" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G1217" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H1217" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I1217" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J1217" s="2" t="s">
         <v>29</v>
@@ -88039,10 +88111,10 @@
         <v>31</v>
       </c>
       <c r="N1217" s="2" t="s">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="O1217" s="2" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="P1217" s="2" t="s">
         <v>33</v>
@@ -88077,22 +88149,22 @@
         <v>22</v>
       </c>
       <c r="D1218" s="2" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="E1218" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1218" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G1218" s="1" t="s">
-        <v>1555</v>
+        <v>285</v>
       </c>
       <c r="H1218" s="1" t="s">
-        <v>1556</v>
+        <v>286</v>
       </c>
       <c r="I1218" s="1" t="s">
-        <v>1556</v>
+        <v>287</v>
       </c>
       <c r="J1218" s="2" t="s">
         <v>29</v>
@@ -88107,10 +88179,10 @@
         <v>31</v>
       </c>
       <c r="N1218" s="2" t="s">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="O1218" s="2" t="s">
-        <v>33</v>
+        <v>238</v>
       </c>
       <c r="P1218" s="2" t="s">
         <v>33</v>
@@ -88151,16 +88223,16 @@
         <v>1550</v>
       </c>
       <c r="F1219" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G1219" s="1" t="s">
-        <v>74</v>
+        <v>1558</v>
       </c>
       <c r="H1219" s="1" t="s">
-        <v>75</v>
+        <v>1559</v>
       </c>
       <c r="I1219" s="1" t="s">
-        <v>75</v>
+        <v>1559</v>
       </c>
       <c r="J1219" s="2" t="s">
         <v>29</v>
@@ -88175,10 +88247,10 @@
         <v>31</v>
       </c>
       <c r="N1219" s="2" t="s">
-        <v>338</v>
+        <v>52</v>
       </c>
       <c r="O1219" s="2" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="P1219" s="2" t="s">
         <v>33</v>
@@ -88213,22 +88285,22 @@
         <v>22</v>
       </c>
       <c r="D1220" s="2" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="E1220" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1220" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G1220" s="1" t="s">
-        <v>1344</v>
+        <v>74</v>
       </c>
       <c r="H1220" s="1" t="s">
-        <v>1345</v>
+        <v>75</v>
       </c>
       <c r="I1220" s="1" t="s">
-        <v>1346</v>
+        <v>75</v>
       </c>
       <c r="J1220" s="2" t="s">
         <v>29</v>
@@ -88243,10 +88315,10 @@
         <v>31</v>
       </c>
       <c r="N1220" s="2" t="s">
-        <v>52</v>
+        <v>354</v>
       </c>
       <c r="O1220" s="2" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="P1220" s="2" t="s">
         <v>33</v>
@@ -88281,22 +88353,22 @@
         <v>22</v>
       </c>
       <c r="D1221" s="2" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="E1221" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1221" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G1221" s="1" t="s">
-        <v>290</v>
+        <v>1344</v>
       </c>
       <c r="H1221" s="1" t="s">
-        <v>291</v>
+        <v>1345</v>
       </c>
       <c r="I1221" s="1" t="s">
-        <v>291</v>
+        <v>1346</v>
       </c>
       <c r="J1221" s="2" t="s">
         <v>29</v>
@@ -88311,10 +88383,10 @@
         <v>31</v>
       </c>
       <c r="N1221" s="2" t="s">
-        <v>435</v>
+        <v>52</v>
       </c>
       <c r="O1221" s="2" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="P1221" s="2" t="s">
         <v>33</v>
@@ -88349,22 +88421,22 @@
         <v>22</v>
       </c>
       <c r="D1222" s="2" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="E1222" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1222" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G1222" s="1" t="s">
-        <v>1467</v>
+        <v>290</v>
       </c>
       <c r="H1222" s="1" t="s">
-        <v>1468</v>
+        <v>291</v>
       </c>
       <c r="I1222" s="1" t="s">
-        <v>1468</v>
+        <v>291</v>
       </c>
       <c r="J1222" s="2" t="s">
         <v>29</v>
@@ -88379,10 +88451,10 @@
         <v>31</v>
       </c>
       <c r="N1222" s="2" t="s">
-        <v>33</v>
+        <v>443</v>
       </c>
       <c r="O1222" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="P1222" s="2" t="s">
         <v>33</v>
@@ -88417,22 +88489,22 @@
         <v>22</v>
       </c>
       <c r="D1223" s="2" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="E1223" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1223" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="G1223" s="1" t="s">
-        <v>293</v>
+        <v>1467</v>
       </c>
       <c r="H1223" s="1" t="s">
-        <v>294</v>
+        <v>1468</v>
       </c>
       <c r="I1223" s="1" t="s">
-        <v>294</v>
+        <v>1468</v>
       </c>
       <c r="J1223" s="2" t="s">
         <v>29</v>
@@ -88447,10 +88519,10 @@
         <v>31</v>
       </c>
       <c r="N1223" s="2" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="O1223" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="P1223" s="2" t="s">
         <v>33</v>
@@ -88485,22 +88557,22 @@
         <v>22</v>
       </c>
       <c r="D1224" s="2" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="E1224" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1224" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G1224" s="1" t="s">
-        <v>83</v>
+        <v>1565</v>
       </c>
       <c r="H1224" s="1" t="s">
-        <v>84</v>
+        <v>1566</v>
       </c>
       <c r="I1224" s="1" t="s">
-        <v>84</v>
+        <v>1566</v>
       </c>
       <c r="J1224" s="2" t="s">
         <v>29</v>
@@ -88515,10 +88587,10 @@
         <v>31</v>
       </c>
       <c r="N1224" s="2" t="s">
-        <v>1563</v>
+        <v>33</v>
       </c>
       <c r="O1224" s="2" t="s">
-        <v>1564</v>
+        <v>52</v>
       </c>
       <c r="P1224" s="2" t="s">
         <v>33</v>
@@ -88553,22 +88625,22 @@
         <v>22</v>
       </c>
       <c r="D1225" s="2" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="E1225" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1225" s="2" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="G1225" s="1" t="s">
-        <v>1352</v>
+        <v>293</v>
       </c>
       <c r="H1225" s="1" t="s">
-        <v>1353</v>
+        <v>294</v>
       </c>
       <c r="I1225" s="1" t="s">
-        <v>1353</v>
+        <v>294</v>
       </c>
       <c r="J1225" s="2" t="s">
         <v>29</v>
@@ -88583,10 +88655,10 @@
         <v>31</v>
       </c>
       <c r="N1225" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O1225" s="2" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="P1225" s="2" t="s">
         <v>33</v>
@@ -88621,22 +88693,22 @@
         <v>22</v>
       </c>
       <c r="D1226" s="2" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="E1226" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1226" s="2" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="G1226" s="1" t="s">
-        <v>48</v>
+        <v>1177</v>
       </c>
       <c r="H1226" s="1" t="s">
-        <v>49</v>
+        <v>1178</v>
       </c>
       <c r="I1226" s="1" t="s">
-        <v>50</v>
+        <v>1179</v>
       </c>
       <c r="J1226" s="2" t="s">
         <v>29</v>
@@ -88651,10 +88723,10 @@
         <v>31</v>
       </c>
       <c r="N1226" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1226" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="O1226" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="P1226" s="2" t="s">
         <v>33</v>
@@ -88689,22 +88761,22 @@
         <v>22</v>
       </c>
       <c r="D1227" s="2" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="E1227" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1227" s="2" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="G1227" s="1" t="s">
-        <v>1359</v>
+        <v>83</v>
       </c>
       <c r="H1227" s="1" t="s">
-        <v>1360</v>
+        <v>84</v>
       </c>
       <c r="I1227" s="1" t="s">
-        <v>1360</v>
+        <v>84</v>
       </c>
       <c r="J1227" s="2" t="s">
         <v>29</v>
@@ -88719,10 +88791,10 @@
         <v>31</v>
       </c>
       <c r="N1227" s="2" t="s">
-        <v>103</v>
+        <v>1570</v>
       </c>
       <c r="O1227" s="2" t="s">
-        <v>33</v>
+        <v>1571</v>
       </c>
       <c r="P1227" s="2" t="s">
         <v>33</v>
@@ -88757,22 +88829,22 @@
         <v>22</v>
       </c>
       <c r="D1228" s="2" t="s">
-        <v>1568</v>
+        <v>1572</v>
       </c>
       <c r="E1228" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1228" s="2" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="G1228" s="1" t="s">
-        <v>1078</v>
+        <v>1352</v>
       </c>
       <c r="H1228" s="1" t="s">
-        <v>1079</v>
+        <v>1353</v>
       </c>
       <c r="I1228" s="1" t="s">
-        <v>1080</v>
+        <v>1353</v>
       </c>
       <c r="J1228" s="2" t="s">
         <v>29</v>
@@ -88825,22 +88897,22 @@
         <v>22</v>
       </c>
       <c r="D1229" s="2" t="s">
-        <v>1569</v>
+        <v>1573</v>
       </c>
       <c r="E1229" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1229" s="2" t="s">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="G1229" s="1" t="s">
-        <v>296</v>
+        <v>48</v>
       </c>
       <c r="H1229" s="1" t="s">
-        <v>297</v>
+        <v>49</v>
       </c>
       <c r="I1229" s="1" t="s">
-        <v>298</v>
+        <v>50</v>
       </c>
       <c r="J1229" s="2" t="s">
         <v>29</v>
@@ -88855,10 +88927,10 @@
         <v>31</v>
       </c>
       <c r="N1229" s="2" t="s">
-        <v>183</v>
+        <v>52</v>
       </c>
       <c r="O1229" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="P1229" s="2" t="s">
         <v>33</v>
@@ -88893,22 +88965,22 @@
         <v>22</v>
       </c>
       <c r="D1230" s="2" t="s">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="E1230" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1230" s="2" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="G1230" s="1" t="s">
-        <v>89</v>
+        <v>1359</v>
       </c>
       <c r="H1230" s="1" t="s">
-        <v>90</v>
+        <v>1360</v>
       </c>
       <c r="I1230" s="1" t="s">
-        <v>90</v>
+        <v>1360</v>
       </c>
       <c r="J1230" s="2" t="s">
         <v>29</v>
@@ -88923,10 +88995,10 @@
         <v>31</v>
       </c>
       <c r="N1230" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="O1230" s="2" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="P1230" s="2" t="s">
         <v>33</v>
@@ -88961,22 +89033,22 @@
         <v>22</v>
       </c>
       <c r="D1231" s="2" t="s">
-        <v>1571</v>
+        <v>1575</v>
       </c>
       <c r="E1231" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1231" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G1231" s="1" t="s">
-        <v>167</v>
+        <v>1078</v>
       </c>
       <c r="H1231" s="1" t="s">
-        <v>168</v>
+        <v>1079</v>
       </c>
       <c r="I1231" s="1" t="s">
-        <v>169</v>
+        <v>1080</v>
       </c>
       <c r="J1231" s="2" t="s">
         <v>29</v>
@@ -88991,10 +89063,10 @@
         <v>31</v>
       </c>
       <c r="N1231" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="O1231" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="P1231" s="2" t="s">
         <v>33</v>
@@ -89029,22 +89101,22 @@
         <v>22</v>
       </c>
       <c r="D1232" s="2" t="s">
-        <v>1572</v>
+        <v>1576</v>
       </c>
       <c r="E1232" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1232" s="2" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="G1232" s="1" t="s">
-        <v>301</v>
+        <v>1577</v>
       </c>
       <c r="H1232" s="1" t="s">
-        <v>302</v>
+        <v>1578</v>
       </c>
       <c r="I1232" s="1" t="s">
-        <v>302</v>
+        <v>1579</v>
       </c>
       <c r="J1232" s="2" t="s">
         <v>29</v>
@@ -89059,10 +89131,10 @@
         <v>31</v>
       </c>
       <c r="N1232" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O1232" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P1232" s="2" t="s">
         <v>33</v>
@@ -89097,22 +89169,22 @@
         <v>22</v>
       </c>
       <c r="D1233" s="2" t="s">
-        <v>1573</v>
+        <v>1580</v>
       </c>
       <c r="E1233" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1233" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G1233" s="1" t="s">
-        <v>1369</v>
+        <v>296</v>
       </c>
       <c r="H1233" s="1" t="s">
-        <v>1370</v>
+        <v>297</v>
       </c>
       <c r="I1233" s="1" t="s">
-        <v>1370</v>
+        <v>298</v>
       </c>
       <c r="J1233" s="2" t="s">
         <v>29</v>
@@ -89127,10 +89199,10 @@
         <v>31</v>
       </c>
       <c r="N1233" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1233" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="O1233" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="P1233" s="2" t="s">
         <v>33</v>
@@ -89165,22 +89237,22 @@
         <v>22</v>
       </c>
       <c r="D1234" s="2" t="s">
-        <v>1574</v>
+        <v>1581</v>
       </c>
       <c r="E1234" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1234" s="2" t="s">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="G1234" s="1" t="s">
-        <v>304</v>
+        <v>89</v>
       </c>
       <c r="H1234" s="1" t="s">
-        <v>305</v>
+        <v>90</v>
       </c>
       <c r="I1234" s="1" t="s">
-        <v>305</v>
+        <v>90</v>
       </c>
       <c r="J1234" s="2" t="s">
         <v>29</v>
@@ -89195,10 +89267,10 @@
         <v>31</v>
       </c>
       <c r="N1234" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="O1234" s="2" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="P1234" s="2" t="s">
         <v>33</v>
@@ -89233,22 +89305,22 @@
         <v>22</v>
       </c>
       <c r="D1235" s="2" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="E1235" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1235" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="G1235" s="1" t="s">
-        <v>1377</v>
+        <v>167</v>
       </c>
       <c r="H1235" s="1" t="s">
-        <v>1378</v>
+        <v>168</v>
       </c>
       <c r="I1235" s="1" t="s">
-        <v>1378</v>
+        <v>169</v>
       </c>
       <c r="J1235" s="2" t="s">
         <v>29</v>
@@ -89263,10 +89335,10 @@
         <v>31</v>
       </c>
       <c r="N1235" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="O1235" s="2" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="P1235" s="2" t="s">
         <v>33</v>
@@ -89301,22 +89373,22 @@
         <v>22</v>
       </c>
       <c r="D1236" s="2" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="E1236" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1236" s="2" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="G1236" s="1" t="s">
-        <v>782</v>
+        <v>301</v>
       </c>
       <c r="H1236" s="1" t="s">
-        <v>783</v>
+        <v>302</v>
       </c>
       <c r="I1236" s="1" t="s">
-        <v>784</v>
+        <v>302</v>
       </c>
       <c r="J1236" s="2" t="s">
         <v>29</v>
@@ -89331,10 +89403,10 @@
         <v>31</v>
       </c>
       <c r="N1236" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="O1236" s="2" t="s">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="P1236" s="2" t="s">
         <v>33</v>
@@ -89369,22 +89441,22 @@
         <v>22</v>
       </c>
       <c r="D1237" s="2" t="s">
-        <v>1577</v>
+        <v>1584</v>
       </c>
       <c r="E1237" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1237" s="2" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="G1237" s="1" t="s">
-        <v>93</v>
+        <v>1585</v>
       </c>
       <c r="H1237" s="1" t="s">
-        <v>94</v>
+        <v>1586</v>
       </c>
       <c r="I1237" s="1" t="s">
-        <v>94</v>
+        <v>1587</v>
       </c>
       <c r="J1237" s="2" t="s">
         <v>29</v>
@@ -89399,10 +89471,10 @@
         <v>31</v>
       </c>
       <c r="N1237" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="O1237" s="2" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="P1237" s="2" t="s">
         <v>33</v>
@@ -89437,22 +89509,22 @@
         <v>22</v>
       </c>
       <c r="D1238" s="2" t="s">
-        <v>1578</v>
+        <v>1588</v>
       </c>
       <c r="E1238" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1238" s="2" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="G1238" s="1" t="s">
-        <v>306</v>
+        <v>1369</v>
       </c>
       <c r="H1238" s="1" t="s">
-        <v>307</v>
+        <v>1370</v>
       </c>
       <c r="I1238" s="1" t="s">
-        <v>308</v>
+        <v>1370</v>
       </c>
       <c r="J1238" s="2" t="s">
         <v>29</v>
@@ -89467,10 +89539,10 @@
         <v>31</v>
       </c>
       <c r="N1238" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O1238" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="P1238" s="2" t="s">
         <v>33</v>
@@ -89505,22 +89577,22 @@
         <v>22</v>
       </c>
       <c r="D1239" s="2" t="s">
-        <v>1579</v>
+        <v>1589</v>
       </c>
       <c r="E1239" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1239" s="2" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="G1239" s="1" t="s">
-        <v>1383</v>
+        <v>304</v>
       </c>
       <c r="H1239" s="1" t="s">
-        <v>1384</v>
+        <v>305</v>
       </c>
       <c r="I1239" s="1" t="s">
-        <v>1384</v>
+        <v>305</v>
       </c>
       <c r="J1239" s="2" t="s">
         <v>29</v>
@@ -89535,10 +89607,10 @@
         <v>31</v>
       </c>
       <c r="N1239" s="2" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="O1239" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="P1239" s="2" t="s">
         <v>33</v>
@@ -89573,22 +89645,22 @@
         <v>22</v>
       </c>
       <c r="D1240" s="2" t="s">
-        <v>1580</v>
+        <v>1590</v>
       </c>
       <c r="E1240" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1240" s="2" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="G1240" s="1" t="s">
-        <v>97</v>
+        <v>1377</v>
       </c>
       <c r="H1240" s="1" t="s">
-        <v>98</v>
+        <v>1378</v>
       </c>
       <c r="I1240" s="1" t="s">
-        <v>98</v>
+        <v>1378</v>
       </c>
       <c r="J1240" s="2" t="s">
         <v>29</v>
@@ -89603,10 +89675,10 @@
         <v>31</v>
       </c>
       <c r="N1240" s="2" t="s">
-        <v>549</v>
+        <v>52</v>
       </c>
       <c r="O1240" s="2" t="s">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="P1240" s="2" t="s">
         <v>33</v>
@@ -89641,22 +89713,22 @@
         <v>22</v>
       </c>
       <c r="D1241" s="2" t="s">
-        <v>1581</v>
+        <v>1591</v>
       </c>
       <c r="E1241" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1241" s="2" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="G1241" s="1" t="s">
-        <v>1391</v>
+        <v>782</v>
       </c>
       <c r="H1241" s="1" t="s">
-        <v>1392</v>
+        <v>783</v>
       </c>
       <c r="I1241" s="1" t="s">
-        <v>1392</v>
+        <v>784</v>
       </c>
       <c r="J1241" s="2" t="s">
         <v>29</v>
@@ -89671,10 +89743,10 @@
         <v>31</v>
       </c>
       <c r="N1241" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="O1241" s="2" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="P1241" s="2" t="s">
         <v>33</v>
@@ -89709,22 +89781,22 @@
         <v>22</v>
       </c>
       <c r="D1242" s="2" t="s">
-        <v>1582</v>
+        <v>1592</v>
       </c>
       <c r="E1242" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1242" s="2" t="s">
-        <v>216</v>
+        <v>92</v>
       </c>
       <c r="G1242" s="1" t="s">
-        <v>311</v>
+        <v>93</v>
       </c>
       <c r="H1242" s="1" t="s">
-        <v>312</v>
+        <v>94</v>
       </c>
       <c r="I1242" s="1" t="s">
-        <v>313</v>
+        <v>94</v>
       </c>
       <c r="J1242" s="2" t="s">
         <v>29</v>
@@ -89739,10 +89811,10 @@
         <v>31</v>
       </c>
       <c r="N1242" s="2" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="O1242" s="2" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="P1242" s="2" t="s">
         <v>33</v>
@@ -89777,22 +89849,22 @@
         <v>22</v>
       </c>
       <c r="D1243" s="2" t="s">
-        <v>1583</v>
+        <v>1593</v>
       </c>
       <c r="E1243" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1243" s="2" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="G1243" s="1" t="s">
-        <v>314</v>
+        <v>570</v>
       </c>
       <c r="H1243" s="1" t="s">
-        <v>315</v>
+        <v>571</v>
       </c>
       <c r="I1243" s="1" t="s">
-        <v>315</v>
+        <v>572</v>
       </c>
       <c r="J1243" s="2" t="s">
         <v>29</v>
@@ -89807,10 +89879,10 @@
         <v>31</v>
       </c>
       <c r="N1243" s="2" t="s">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="O1243" s="2" t="s">
-        <v>224</v>
+        <v>54</v>
       </c>
       <c r="P1243" s="2" t="s">
         <v>33</v>
@@ -89845,22 +89917,22 @@
         <v>22</v>
       </c>
       <c r="D1244" s="2" t="s">
-        <v>1584</v>
+        <v>1594</v>
       </c>
       <c r="E1244" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1244" s="2" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="G1244" s="1" t="s">
-        <v>101</v>
+        <v>306</v>
       </c>
       <c r="H1244" s="1" t="s">
-        <v>102</v>
+        <v>307</v>
       </c>
       <c r="I1244" s="1" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="J1244" s="2" t="s">
         <v>29</v>
@@ -89875,10 +89947,10 @@
         <v>31</v>
       </c>
       <c r="N1244" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="O1244" s="2" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="P1244" s="2" t="s">
         <v>33</v>
@@ -89913,22 +89985,22 @@
         <v>22</v>
       </c>
       <c r="D1245" s="2" t="s">
-        <v>1585</v>
+        <v>1595</v>
       </c>
       <c r="E1245" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1245" s="2" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="G1245" s="1" t="s">
-        <v>105</v>
+        <v>1383</v>
       </c>
       <c r="H1245" s="1" t="s">
-        <v>106</v>
+        <v>1384</v>
       </c>
       <c r="I1245" s="1" t="s">
-        <v>106</v>
+        <v>1384</v>
       </c>
       <c r="J1245" s="2" t="s">
         <v>29</v>
@@ -89943,10 +90015,10 @@
         <v>31</v>
       </c>
       <c r="N1245" s="2" t="s">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c r="O1245" s="2" t="s">
-        <v>351</v>
+        <v>33</v>
       </c>
       <c r="P1245" s="2" t="s">
         <v>33</v>
@@ -89981,22 +90053,22 @@
         <v>22</v>
       </c>
       <c r="D1246" s="2" t="s">
-        <v>1586</v>
+        <v>1596</v>
       </c>
       <c r="E1246" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1246" s="2" t="s">
-        <v>221</v>
+        <v>96</v>
       </c>
       <c r="G1246" s="1" t="s">
-        <v>1398</v>
+        <v>97</v>
       </c>
       <c r="H1246" s="1" t="s">
-        <v>1399</v>
+        <v>98</v>
       </c>
       <c r="I1246" s="1" t="s">
-        <v>1399</v>
+        <v>98</v>
       </c>
       <c r="J1246" s="2" t="s">
         <v>29</v>
@@ -90011,10 +90083,10 @@
         <v>31</v>
       </c>
       <c r="N1246" s="2" t="s">
-        <v>202</v>
+        <v>558</v>
       </c>
       <c r="O1246" s="2" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="P1246" s="2" t="s">
         <v>33</v>
@@ -90049,22 +90121,22 @@
         <v>22</v>
       </c>
       <c r="D1247" s="2" t="s">
-        <v>1587</v>
+        <v>1597</v>
       </c>
       <c r="E1247" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1247" s="2" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="G1247" s="1" t="s">
-        <v>318</v>
+        <v>1391</v>
       </c>
       <c r="H1247" s="1" t="s">
-        <v>319</v>
+        <v>1392</v>
       </c>
       <c r="I1247" s="1" t="s">
-        <v>319</v>
+        <v>1392</v>
       </c>
       <c r="J1247" s="2" t="s">
         <v>29</v>
@@ -90079,7 +90151,7 @@
         <v>31</v>
       </c>
       <c r="N1247" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="O1247" s="2" t="s">
         <v>33</v>
@@ -90117,22 +90189,22 @@
         <v>22</v>
       </c>
       <c r="D1248" s="2" t="s">
-        <v>1588</v>
+        <v>1598</v>
       </c>
       <c r="E1248" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1248" s="2" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="G1248" s="1" t="s">
-        <v>1402</v>
+        <v>420</v>
       </c>
       <c r="H1248" s="1" t="s">
-        <v>1403</v>
+        <v>421</v>
       </c>
       <c r="I1248" s="1" t="s">
-        <v>1403</v>
+        <v>422</v>
       </c>
       <c r="J1248" s="2" t="s">
         <v>29</v>
@@ -90150,7 +90222,7 @@
         <v>52</v>
       </c>
       <c r="O1248" s="2" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="P1248" s="2" t="s">
         <v>33</v>
@@ -90185,22 +90257,22 @@
         <v>22</v>
       </c>
       <c r="D1249" s="2" t="s">
-        <v>1589</v>
+        <v>1599</v>
       </c>
       <c r="E1249" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1249" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G1249" s="1" t="s">
-        <v>374</v>
+        <v>311</v>
       </c>
       <c r="H1249" s="1" t="s">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="I1249" s="1" t="s">
-        <v>375</v>
+        <v>313</v>
       </c>
       <c r="J1249" s="2" t="s">
         <v>29</v>
@@ -90215,10 +90287,10 @@
         <v>31</v>
       </c>
       <c r="N1249" s="2" t="s">
-        <v>231</v>
+        <v>52</v>
       </c>
       <c r="O1249" s="2" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="P1249" s="2" t="s">
         <v>33</v>
@@ -90253,22 +90325,22 @@
         <v>22</v>
       </c>
       <c r="D1250" s="2" t="s">
-        <v>1590</v>
+        <v>1600</v>
       </c>
       <c r="E1250" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1250" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="G1250" s="1" t="s">
-        <v>522</v>
+        <v>314</v>
       </c>
       <c r="H1250" s="1" t="s">
-        <v>523</v>
+        <v>315</v>
       </c>
       <c r="I1250" s="1" t="s">
-        <v>523</v>
+        <v>315</v>
       </c>
       <c r="J1250" s="2" t="s">
         <v>29</v>
@@ -90283,10 +90355,10 @@
         <v>31</v>
       </c>
       <c r="N1250" s="2" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="O1250" s="2" t="s">
-        <v>165</v>
+        <v>267</v>
       </c>
       <c r="P1250" s="2" t="s">
         <v>33</v>
@@ -90321,22 +90393,22 @@
         <v>22</v>
       </c>
       <c r="D1251" s="2" t="s">
-        <v>1591</v>
+        <v>1601</v>
       </c>
       <c r="E1251" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1251" s="2" t="s">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="G1251" s="1" t="s">
-        <v>1407</v>
+        <v>101</v>
       </c>
       <c r="H1251" s="1" t="s">
-        <v>1408</v>
+        <v>102</v>
       </c>
       <c r="I1251" s="1" t="s">
-        <v>1408</v>
+        <v>102</v>
       </c>
       <c r="J1251" s="2" t="s">
         <v>29</v>
@@ -90351,10 +90423,10 @@
         <v>31</v>
       </c>
       <c r="N1251" s="2" t="s">
-        <v>52</v>
+        <v>229</v>
       </c>
       <c r="O1251" s="2" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="P1251" s="2" t="s">
         <v>33</v>
@@ -90389,22 +90461,22 @@
         <v>22</v>
       </c>
       <c r="D1252" s="2" t="s">
-        <v>1592</v>
+        <v>1602</v>
       </c>
       <c r="E1252" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1252" s="2" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="G1252" s="1" t="s">
-        <v>681</v>
+        <v>105</v>
       </c>
       <c r="H1252" s="1" t="s">
-        <v>682</v>
+        <v>106</v>
       </c>
       <c r="I1252" s="1" t="s">
-        <v>682</v>
+        <v>106</v>
       </c>
       <c r="J1252" s="2" t="s">
         <v>29</v>
@@ -90419,10 +90491,10 @@
         <v>31</v>
       </c>
       <c r="N1252" s="2" t="s">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="O1252" s="2" t="s">
-        <v>33</v>
+        <v>379</v>
       </c>
       <c r="P1252" s="2" t="s">
         <v>33</v>
@@ -90457,22 +90529,22 @@
         <v>22</v>
       </c>
       <c r="D1253" s="2" t="s">
-        <v>1593</v>
+        <v>1603</v>
       </c>
       <c r="E1253" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1253" s="2" t="s">
-        <v>116</v>
+        <v>221</v>
       </c>
       <c r="G1253" s="1" t="s">
-        <v>117</v>
+        <v>1398</v>
       </c>
       <c r="H1253" s="1" t="s">
-        <v>118</v>
+        <v>1399</v>
       </c>
       <c r="I1253" s="1" t="s">
-        <v>119</v>
+        <v>1399</v>
       </c>
       <c r="J1253" s="2" t="s">
         <v>29</v>
@@ -90487,10 +90559,10 @@
         <v>31</v>
       </c>
       <c r="N1253" s="2" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="O1253" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P1253" s="2" t="s">
         <v>33</v>
@@ -90525,22 +90597,22 @@
         <v>22</v>
       </c>
       <c r="D1254" s="2" t="s">
-        <v>1594</v>
+        <v>1604</v>
       </c>
       <c r="E1254" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1254" s="2" t="s">
-        <v>120</v>
+        <v>224</v>
       </c>
       <c r="G1254" s="1" t="s">
-        <v>121</v>
+        <v>318</v>
       </c>
       <c r="H1254" s="1" t="s">
-        <v>122</v>
+        <v>319</v>
       </c>
       <c r="I1254" s="1" t="s">
-        <v>122</v>
+        <v>319</v>
       </c>
       <c r="J1254" s="2" t="s">
         <v>29</v>
@@ -90555,10 +90627,10 @@
         <v>31</v>
       </c>
       <c r="N1254" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="O1254" s="2" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="P1254" s="2" t="s">
         <v>33</v>
@@ -90593,22 +90665,22 @@
         <v>22</v>
       </c>
       <c r="D1255" s="2" t="s">
-        <v>1595</v>
+        <v>1605</v>
       </c>
       <c r="E1255" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1255" s="2" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="G1255" s="1" t="s">
-        <v>324</v>
+        <v>1402</v>
       </c>
       <c r="H1255" s="1" t="s">
-        <v>325</v>
+        <v>1403</v>
       </c>
       <c r="I1255" s="1" t="s">
-        <v>325</v>
+        <v>1403</v>
       </c>
       <c r="J1255" s="2" t="s">
         <v>29</v>
@@ -90623,10 +90695,10 @@
         <v>31</v>
       </c>
       <c r="N1255" s="2" t="s">
-        <v>533</v>
+        <v>52</v>
       </c>
       <c r="O1255" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="P1255" s="2" t="s">
         <v>33</v>
@@ -90661,22 +90733,22 @@
         <v>22</v>
       </c>
       <c r="D1256" s="2" t="s">
-        <v>1596</v>
+        <v>1606</v>
       </c>
       <c r="E1256" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1256" s="2" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="G1256" s="1" t="s">
-        <v>1415</v>
+        <v>374</v>
       </c>
       <c r="H1256" s="1" t="s">
-        <v>1416</v>
+        <v>375</v>
       </c>
       <c r="I1256" s="1" t="s">
-        <v>1416</v>
+        <v>375</v>
       </c>
       <c r="J1256" s="2" t="s">
         <v>29</v>
@@ -90691,10 +90763,10 @@
         <v>31</v>
       </c>
       <c r="N1256" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="O1256" s="2" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="P1256" s="2" t="s">
         <v>33</v>
@@ -90729,22 +90801,22 @@
         <v>22</v>
       </c>
       <c r="D1257" s="2" t="s">
-        <v>1597</v>
+        <v>1607</v>
       </c>
       <c r="E1257" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1257" s="2" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="G1257" s="1" t="s">
-        <v>1507</v>
+        <v>625</v>
       </c>
       <c r="H1257" s="1" t="s">
-        <v>1508</v>
+        <v>626</v>
       </c>
       <c r="I1257" s="1" t="s">
-        <v>1508</v>
+        <v>626</v>
       </c>
       <c r="J1257" s="2" t="s">
         <v>29</v>
@@ -90759,10 +90831,10 @@
         <v>31</v>
       </c>
       <c r="N1257" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O1257" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P1257" s="2" t="s">
         <v>33</v>
@@ -90797,22 +90869,22 @@
         <v>22</v>
       </c>
       <c r="D1258" s="2" t="s">
-        <v>1598</v>
+        <v>1608</v>
       </c>
       <c r="E1258" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1258" s="2" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="G1258" s="1" t="s">
-        <v>381</v>
+        <v>522</v>
       </c>
       <c r="H1258" s="1" t="s">
-        <v>382</v>
+        <v>523</v>
       </c>
       <c r="I1258" s="1" t="s">
-        <v>382</v>
+        <v>523</v>
       </c>
       <c r="J1258" s="2" t="s">
         <v>29</v>
@@ -90827,10 +90899,10 @@
         <v>31</v>
       </c>
       <c r="N1258" s="2" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="O1258" s="2" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="P1258" s="2" t="s">
         <v>33</v>
@@ -90865,22 +90937,22 @@
         <v>22</v>
       </c>
       <c r="D1259" s="2" t="s">
-        <v>1599</v>
+        <v>1609</v>
       </c>
       <c r="E1259" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1259" s="2" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="G1259" s="1" t="s">
-        <v>327</v>
+        <v>1407</v>
       </c>
       <c r="H1259" s="1" t="s">
-        <v>328</v>
+        <v>1408</v>
       </c>
       <c r="I1259" s="1" t="s">
-        <v>329</v>
+        <v>1408</v>
       </c>
       <c r="J1259" s="2" t="s">
         <v>29</v>
@@ -90895,10 +90967,10 @@
         <v>31</v>
       </c>
       <c r="N1259" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="O1259" s="2" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="P1259" s="2" t="s">
         <v>33</v>
@@ -90933,22 +91005,22 @@
         <v>22</v>
       </c>
       <c r="D1260" s="2" t="s">
-        <v>1600</v>
+        <v>1610</v>
       </c>
       <c r="E1260" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1260" s="2" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="G1260" s="1" t="s">
-        <v>432</v>
+        <v>110</v>
       </c>
       <c r="H1260" s="1" t="s">
-        <v>433</v>
+        <v>111</v>
       </c>
       <c r="I1260" s="1" t="s">
-        <v>434</v>
+        <v>111</v>
       </c>
       <c r="J1260" s="2" t="s">
         <v>29</v>
@@ -90963,10 +91035,10 @@
         <v>31</v>
       </c>
       <c r="N1260" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O1260" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P1260" s="2" t="s">
         <v>33</v>
@@ -91001,22 +91073,22 @@
         <v>22</v>
       </c>
       <c r="D1261" s="2" t="s">
-        <v>1601</v>
+        <v>1611</v>
       </c>
       <c r="E1261" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1261" s="2" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="G1261" s="1" t="s">
-        <v>331</v>
+        <v>681</v>
       </c>
       <c r="H1261" s="1" t="s">
-        <v>332</v>
+        <v>682</v>
       </c>
       <c r="I1261" s="1" t="s">
-        <v>333</v>
+        <v>682</v>
       </c>
       <c r="J1261" s="2" t="s">
         <v>29</v>
@@ -91031,10 +91103,10 @@
         <v>31</v>
       </c>
       <c r="N1261" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="O1261" s="2" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="P1261" s="2" t="s">
         <v>33</v>
@@ -91069,22 +91141,22 @@
         <v>22</v>
       </c>
       <c r="D1262" s="2" t="s">
-        <v>1602</v>
+        <v>1612</v>
       </c>
       <c r="E1262" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1262" s="2" t="s">
-        <v>277</v>
+        <v>116</v>
       </c>
       <c r="G1262" s="1" t="s">
-        <v>1603</v>
+        <v>117</v>
       </c>
       <c r="H1262" s="1" t="s">
-        <v>1604</v>
+        <v>118</v>
       </c>
       <c r="I1262" s="1" t="s">
-        <v>1604</v>
+        <v>119</v>
       </c>
       <c r="J1262" s="2" t="s">
         <v>29</v>
@@ -91099,10 +91171,10 @@
         <v>31</v>
       </c>
       <c r="N1262" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="O1262" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="P1262" s="2" t="s">
         <v>33</v>
@@ -91137,22 +91209,22 @@
         <v>22</v>
       </c>
       <c r="D1263" s="2" t="s">
-        <v>1605</v>
+        <v>1613</v>
       </c>
       <c r="E1263" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1263" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G1263" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H1263" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I1263" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J1263" s="2" t="s">
         <v>29</v>
@@ -91167,10 +91239,10 @@
         <v>31</v>
       </c>
       <c r="N1263" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O1263" s="2" t="s">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="P1263" s="2" t="s">
         <v>33</v>
@@ -91205,22 +91277,22 @@
         <v>22</v>
       </c>
       <c r="D1264" s="2" t="s">
-        <v>1606</v>
+        <v>1614</v>
       </c>
       <c r="E1264" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1264" s="2" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="G1264" s="1" t="s">
-        <v>1425</v>
+        <v>324</v>
       </c>
       <c r="H1264" s="1" t="s">
-        <v>1426</v>
+        <v>325</v>
       </c>
       <c r="I1264" s="1" t="s">
-        <v>1427</v>
+        <v>325</v>
       </c>
       <c r="J1264" s="2" t="s">
         <v>29</v>
@@ -91235,10 +91307,10 @@
         <v>31</v>
       </c>
       <c r="N1264" s="2" t="s">
-        <v>64</v>
+        <v>558</v>
       </c>
       <c r="O1264" s="2" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="P1264" s="2" t="s">
         <v>33</v>
@@ -91279,16 +91351,16 @@
         <v>1550</v>
       </c>
       <c r="F1265" s="2" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="G1265" s="1" t="s">
-        <v>1429</v>
+        <v>1415</v>
       </c>
       <c r="H1265" s="1" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="I1265" s="1" t="s">
-        <v>1431</v>
+        <v>1416</v>
       </c>
       <c r="J1265" s="2" t="s">
         <v>29</v>
@@ -91341,22 +91413,22 @@
         <v>22</v>
       </c>
       <c r="D1266" s="2" t="s">
-        <v>1607</v>
+        <v>1615</v>
       </c>
       <c r="E1266" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1266" s="2" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="G1266" s="1" t="s">
-        <v>135</v>
+        <v>1507</v>
       </c>
       <c r="H1266" s="1" t="s">
-        <v>136</v>
+        <v>1508</v>
       </c>
       <c r="I1266" s="1" t="s">
-        <v>136</v>
+        <v>1508</v>
       </c>
       <c r="J1266" s="2" t="s">
         <v>29</v>
@@ -91371,10 +91443,10 @@
         <v>31</v>
       </c>
       <c r="N1266" s="2" t="s">
-        <v>1608</v>
+        <v>52</v>
       </c>
       <c r="O1266" s="2" t="s">
-        <v>1609</v>
+        <v>95</v>
       </c>
       <c r="P1266" s="2" t="s">
         <v>33</v>
@@ -91409,22 +91481,22 @@
         <v>22</v>
       </c>
       <c r="D1267" s="2" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
       <c r="E1267" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1267" s="2" t="s">
-        <v>321</v>
+        <v>259</v>
       </c>
       <c r="G1267" s="1" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="H1267" s="1" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="I1267" s="1" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="J1267" s="2" t="s">
         <v>29</v>
@@ -91439,7 +91511,7 @@
         <v>31</v>
       </c>
       <c r="N1267" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O1267" s="2" t="s">
         <v>33</v>
@@ -91477,22 +91549,22 @@
         <v>22</v>
       </c>
       <c r="D1268" s="2" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="E1268" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1268" s="2" t="s">
-        <v>141</v>
+        <v>260</v>
       </c>
       <c r="G1268" s="1" t="s">
-        <v>142</v>
+        <v>327</v>
       </c>
       <c r="H1268" s="1" t="s">
-        <v>143</v>
+        <v>328</v>
       </c>
       <c r="I1268" s="1" t="s">
-        <v>143</v>
+        <v>329</v>
       </c>
       <c r="J1268" s="2" t="s">
         <v>29</v>
@@ -91507,10 +91579,10 @@
         <v>31</v>
       </c>
       <c r="N1268" s="2" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="O1268" s="2" t="s">
-        <v>380</v>
+        <v>179</v>
       </c>
       <c r="P1268" s="2" t="s">
         <v>33</v>
@@ -91545,22 +91617,22 @@
         <v>22</v>
       </c>
       <c r="D1269" s="2" t="s">
-        <v>1612</v>
+        <v>1618</v>
       </c>
       <c r="E1269" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1269" s="2" t="s">
-        <v>37</v>
+        <v>261</v>
       </c>
       <c r="G1269" s="1" t="s">
-        <v>38</v>
+        <v>1619</v>
       </c>
       <c r="H1269" s="1" t="s">
-        <v>39</v>
+        <v>1620</v>
       </c>
       <c r="I1269" s="1" t="s">
-        <v>39</v>
+        <v>1620</v>
       </c>
       <c r="J1269" s="2" t="s">
         <v>29</v>
@@ -91575,10 +91647,10 @@
         <v>31</v>
       </c>
       <c r="N1269" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1269" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="O1269" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="P1269" s="2" t="s">
         <v>33</v>
@@ -91613,22 +91685,22 @@
         <v>22</v>
       </c>
       <c r="D1270" s="2" t="s">
-        <v>1613</v>
+        <v>1621</v>
       </c>
       <c r="E1270" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1270" s="2" t="s">
-        <v>330</v>
+        <v>268</v>
       </c>
       <c r="G1270" s="1" t="s">
-        <v>344</v>
+        <v>432</v>
       </c>
       <c r="H1270" s="1" t="s">
-        <v>345</v>
+        <v>433</v>
       </c>
       <c r="I1270" s="1" t="s">
-        <v>346</v>
+        <v>434</v>
       </c>
       <c r="J1270" s="2" t="s">
         <v>29</v>
@@ -91643,10 +91715,10 @@
         <v>31</v>
       </c>
       <c r="N1270" s="2" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="O1270" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="P1270" s="2" t="s">
         <v>33</v>
@@ -91681,22 +91753,22 @@
         <v>22</v>
       </c>
       <c r="D1271" s="2" t="s">
-        <v>1614</v>
+        <v>1622</v>
       </c>
       <c r="E1271" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1271" s="2" t="s">
-        <v>184</v>
+        <v>273</v>
       </c>
       <c r="G1271" s="1" t="s">
-        <v>185</v>
+        <v>331</v>
       </c>
       <c r="H1271" s="1" t="s">
-        <v>186</v>
+        <v>332</v>
       </c>
       <c r="I1271" s="1" t="s">
-        <v>187</v>
+        <v>333</v>
       </c>
       <c r="J1271" s="2" t="s">
         <v>29</v>
@@ -91711,10 +91783,10 @@
         <v>31</v>
       </c>
       <c r="N1271" s="2" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="O1271" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="P1271" s="2" t="s">
         <v>33</v>
@@ -91726,10 +91798,10 @@
         <v>33</v>
       </c>
       <c r="S1271" s="2" t="s">
-        <v>1615</v>
+        <v>33</v>
       </c>
       <c r="T1271" s="2" t="s">
-        <v>1217</v>
+        <v>33</v>
       </c>
       <c r="U1271" s="1" t="s">
         <v>34</v>
@@ -91749,22 +91821,22 @@
         <v>22</v>
       </c>
       <c r="D1272" s="2" t="s">
-        <v>1616</v>
+        <v>1623</v>
       </c>
       <c r="E1272" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1272" s="2" t="s">
-        <v>146</v>
+        <v>277</v>
       </c>
       <c r="G1272" s="1" t="s">
-        <v>147</v>
+        <v>1624</v>
       </c>
       <c r="H1272" s="1" t="s">
-        <v>148</v>
+        <v>1625</v>
       </c>
       <c r="I1272" s="1" t="s">
-        <v>149</v>
+        <v>1625</v>
       </c>
       <c r="J1272" s="2" t="s">
         <v>29</v>
@@ -91779,10 +91851,10 @@
         <v>31</v>
       </c>
       <c r="N1272" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="O1272" s="2" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="P1272" s="2" t="s">
         <v>33</v>
@@ -91817,22 +91889,22 @@
         <v>22</v>
       </c>
       <c r="D1273" s="2" t="s">
-        <v>1617</v>
+        <v>1626</v>
       </c>
       <c r="E1273" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1273" s="2" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="G1273" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="H1273" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="I1273" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="J1273" s="2" t="s">
         <v>29</v>
@@ -91847,10 +91919,10 @@
         <v>31</v>
       </c>
       <c r="N1273" s="2" t="s">
-        <v>337</v>
+        <v>154</v>
       </c>
       <c r="O1273" s="2" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="P1273" s="2" t="s">
         <v>33</v>
@@ -91885,22 +91957,22 @@
         <v>22</v>
       </c>
       <c r="D1274" s="2" t="s">
-        <v>1618</v>
+        <v>1627</v>
       </c>
       <c r="E1274" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1274" s="2" t="s">
-        <v>350</v>
+        <v>292</v>
       </c>
       <c r="G1274" s="1" t="s">
-        <v>1533</v>
+        <v>1425</v>
       </c>
       <c r="H1274" s="1" t="s">
-        <v>1534</v>
+        <v>1426</v>
       </c>
       <c r="I1274" s="1" t="s">
-        <v>1534</v>
+        <v>1427</v>
       </c>
       <c r="J1274" s="2" t="s">
         <v>29</v>
@@ -91915,10 +91987,10 @@
         <v>31</v>
       </c>
       <c r="N1274" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="O1274" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="P1274" s="2" t="s">
         <v>33</v>
@@ -91953,22 +92025,22 @@
         <v>22</v>
       </c>
       <c r="D1275" s="2" t="s">
-        <v>1619</v>
+        <v>1628</v>
       </c>
       <c r="E1275" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1275" s="2" t="s">
-        <v>155</v>
+        <v>303</v>
       </c>
       <c r="G1275" s="1" t="s">
-        <v>156</v>
+        <v>1429</v>
       </c>
       <c r="H1275" s="1" t="s">
-        <v>157</v>
+        <v>1430</v>
       </c>
       <c r="I1275" s="1" t="s">
-        <v>157</v>
+        <v>1431</v>
       </c>
       <c r="J1275" s="2" t="s">
         <v>29</v>
@@ -91983,10 +92055,10 @@
         <v>31</v>
       </c>
       <c r="N1275" s="2" t="s">
-        <v>368</v>
+        <v>52</v>
       </c>
       <c r="O1275" s="2" t="s">
-        <v>373</v>
+        <v>33</v>
       </c>
       <c r="P1275" s="2" t="s">
         <v>33</v>
@@ -92021,22 +92093,22 @@
         <v>22</v>
       </c>
       <c r="D1276" s="2" t="s">
-        <v>1620</v>
+        <v>1629</v>
       </c>
       <c r="E1276" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1276" s="2" t="s">
-        <v>354</v>
+        <v>134</v>
       </c>
       <c r="G1276" s="1" t="s">
-        <v>649</v>
+        <v>135</v>
       </c>
       <c r="H1276" s="1" t="s">
-        <v>650</v>
+        <v>136</v>
       </c>
       <c r="I1276" s="1" t="s">
-        <v>650</v>
+        <v>136</v>
       </c>
       <c r="J1276" s="2" t="s">
         <v>29</v>
@@ -92051,10 +92123,10 @@
         <v>31</v>
       </c>
       <c r="N1276" s="2" t="s">
-        <v>257</v>
+        <v>1630</v>
       </c>
       <c r="O1276" s="2" t="s">
-        <v>77</v>
+        <v>1631</v>
       </c>
       <c r="P1276" s="2" t="s">
         <v>33</v>
@@ -92089,22 +92161,22 @@
         <v>22</v>
       </c>
       <c r="D1277" s="2" t="s">
-        <v>1621</v>
+        <v>1632</v>
       </c>
       <c r="E1277" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1277" s="2" t="s">
-        <v>360</v>
+        <v>138</v>
       </c>
       <c r="G1277" s="1" t="s">
-        <v>762</v>
+        <v>139</v>
       </c>
       <c r="H1277" s="1" t="s">
-        <v>763</v>
+        <v>140</v>
       </c>
       <c r="I1277" s="1" t="s">
-        <v>763</v>
+        <v>140</v>
       </c>
       <c r="J1277" s="2" t="s">
         <v>29</v>
@@ -92119,10 +92191,10 @@
         <v>31</v>
       </c>
       <c r="N1277" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="O1277" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="P1277" s="2" t="s">
         <v>33</v>
@@ -92157,22 +92229,22 @@
         <v>22</v>
       </c>
       <c r="D1278" s="2" t="s">
-        <v>1622</v>
+        <v>1633</v>
       </c>
       <c r="E1278" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1278" s="2" t="s">
-        <v>241</v>
+        <v>316</v>
       </c>
       <c r="G1278" s="1" t="s">
-        <v>242</v>
+        <v>541</v>
       </c>
       <c r="H1278" s="1" t="s">
-        <v>243</v>
+        <v>542</v>
       </c>
       <c r="I1278" s="1" t="s">
-        <v>243</v>
+        <v>542</v>
       </c>
       <c r="J1278" s="2" t="s">
         <v>29</v>
@@ -92187,10 +92259,10 @@
         <v>31</v>
       </c>
       <c r="N1278" s="2" t="s">
-        <v>518</v>
+        <v>33</v>
       </c>
       <c r="O1278" s="2" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="P1278" s="2" t="s">
         <v>33</v>
@@ -92225,22 +92297,22 @@
         <v>22</v>
       </c>
       <c r="D1279" s="2" t="s">
-        <v>1623</v>
+        <v>1634</v>
       </c>
       <c r="E1279" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1279" s="2" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="G1279" s="1" t="s">
-        <v>496</v>
+        <v>339</v>
       </c>
       <c r="H1279" s="1" t="s">
-        <v>497</v>
+        <v>340</v>
       </c>
       <c r="I1279" s="1" t="s">
-        <v>497</v>
+        <v>340</v>
       </c>
       <c r="J1279" s="2" t="s">
         <v>29</v>
@@ -92293,22 +92365,22 @@
         <v>22</v>
       </c>
       <c r="D1280" s="2" t="s">
-        <v>1624</v>
+        <v>1635</v>
       </c>
       <c r="E1280" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1280" s="2" t="s">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="G1280" s="1" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="H1280" s="1" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="I1280" s="1" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="J1280" s="2" t="s">
         <v>29</v>
@@ -92323,10 +92395,10 @@
         <v>31</v>
       </c>
       <c r="N1280" s="2" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="O1280" s="2" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="P1280" s="2" t="s">
         <v>33</v>
@@ -92361,22 +92433,22 @@
         <v>22</v>
       </c>
       <c r="D1281" s="2" t="s">
-        <v>1625</v>
+        <v>1636</v>
       </c>
       <c r="E1281" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1281" s="2" t="s">
-        <v>351</v>
+        <v>37</v>
       </c>
       <c r="G1281" s="1" t="s">
-        <v>352</v>
+        <v>38</v>
       </c>
       <c r="H1281" s="1" t="s">
-        <v>353</v>
+        <v>39</v>
       </c>
       <c r="I1281" s="1" t="s">
-        <v>353</v>
+        <v>39</v>
       </c>
       <c r="J1281" s="2" t="s">
         <v>29</v>
@@ -92391,13 +92463,13 @@
         <v>31</v>
       </c>
       <c r="N1281" s="2" t="s">
-        <v>1626</v>
+        <v>52</v>
       </c>
       <c r="O1281" s="2" t="s">
-        <v>1627</v>
+        <v>33</v>
       </c>
       <c r="P1281" s="2" t="s">
-        <v>1628</v>
+        <v>33</v>
       </c>
       <c r="Q1281" s="2" t="s">
         <v>33</v>
@@ -92429,22 +92501,22 @@
         <v>22</v>
       </c>
       <c r="D1282" s="2" t="s">
-        <v>1629</v>
+        <v>1637</v>
       </c>
       <c r="E1282" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1282" s="2" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="G1282" s="1" t="s">
-        <v>1453</v>
+        <v>344</v>
       </c>
       <c r="H1282" s="1" t="s">
-        <v>1454</v>
+        <v>345</v>
       </c>
       <c r="I1282" s="1" t="s">
-        <v>1454</v>
+        <v>346</v>
       </c>
       <c r="J1282" s="2" t="s">
         <v>29</v>
@@ -92459,10 +92531,10 @@
         <v>31</v>
       </c>
       <c r="N1282" s="2" t="s">
-        <v>223</v>
+        <v>120</v>
       </c>
       <c r="O1282" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="P1282" s="2" t="s">
         <v>33</v>
@@ -92497,22 +92569,22 @@
         <v>22</v>
       </c>
       <c r="D1283" s="2" t="s">
-        <v>1630</v>
+        <v>1638</v>
       </c>
       <c r="E1283" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1283" s="2" t="s">
-        <v>366</v>
+        <v>184</v>
       </c>
       <c r="G1283" s="1" t="s">
-        <v>403</v>
+        <v>185</v>
       </c>
       <c r="H1283" s="1" t="s">
-        <v>404</v>
+        <v>186</v>
       </c>
       <c r="I1283" s="1" t="s">
-        <v>404</v>
+        <v>187</v>
       </c>
       <c r="J1283" s="2" t="s">
         <v>29</v>
@@ -92527,10 +92599,10 @@
         <v>31</v>
       </c>
       <c r="N1283" s="2" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="O1283" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P1283" s="2" t="s">
         <v>33</v>
@@ -92542,10 +92614,10 @@
         <v>33</v>
       </c>
       <c r="S1283" s="2" t="s">
-        <v>33</v>
+        <v>1639</v>
       </c>
       <c r="T1283" s="2" t="s">
-        <v>33</v>
+        <v>1217</v>
       </c>
       <c r="U1283" s="1" t="s">
         <v>34</v>
@@ -92565,22 +92637,22 @@
         <v>22</v>
       </c>
       <c r="D1284" s="2" t="s">
-        <v>1631</v>
+        <v>1640</v>
       </c>
       <c r="E1284" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1284" s="2" t="s">
-        <v>370</v>
+        <v>146</v>
       </c>
       <c r="G1284" s="1" t="s">
-        <v>1228</v>
+        <v>147</v>
       </c>
       <c r="H1284" s="1" t="s">
-        <v>1229</v>
+        <v>148</v>
       </c>
       <c r="I1284" s="1" t="s">
-        <v>1229</v>
+        <v>149</v>
       </c>
       <c r="J1284" s="2" t="s">
         <v>29</v>
@@ -92595,10 +92667,10 @@
         <v>31</v>
       </c>
       <c r="N1284" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="O1284" s="2" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="P1284" s="2" t="s">
         <v>33</v>
@@ -92633,22 +92705,22 @@
         <v>22</v>
       </c>
       <c r="D1285" s="2" t="s">
-        <v>1632</v>
+        <v>1641</v>
       </c>
       <c r="E1285" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1285" s="2" t="s">
-        <v>376</v>
+        <v>151</v>
       </c>
       <c r="G1285" s="1" t="s">
-        <v>1020</v>
+        <v>152</v>
       </c>
       <c r="H1285" s="1" t="s">
-        <v>1021</v>
+        <v>153</v>
       </c>
       <c r="I1285" s="1" t="s">
-        <v>1021</v>
+        <v>153</v>
       </c>
       <c r="J1285" s="2" t="s">
         <v>29</v>
@@ -92663,10 +92735,10 @@
         <v>31</v>
       </c>
       <c r="N1285" s="2" t="s">
-        <v>162</v>
+        <v>330</v>
       </c>
       <c r="O1285" s="2" t="s">
-        <v>199</v>
+        <v>272</v>
       </c>
       <c r="P1285" s="2" t="s">
         <v>33</v>
@@ -92701,60 +92773,876 @@
         <v>22</v>
       </c>
       <c r="D1286" s="2" t="s">
-        <v>1633</v>
+        <v>1642</v>
       </c>
       <c r="E1286" s="2" t="s">
         <v>1550</v>
       </c>
       <c r="F1286" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G1286" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H1286" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I1286" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="J1286" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1286" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1286" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1286" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1286" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1286" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1286" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1286" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1286" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1286" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1286" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1286" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1286" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1287" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1287" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1287" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E1287" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F1287" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1287" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1287" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1287" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1287" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1287" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1287" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1287" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1287" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="O1287" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P1287" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1287" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1287" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1287" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1287" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1287" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1287" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1288" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1288" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1288" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E1288" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F1288" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1288" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="H1288" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="I1288" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="J1288" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1288" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1288" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1288" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1288" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="O1288" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1288" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1288" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1288" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1288" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1288" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1288" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1288" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1289" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1289" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1289" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E1289" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F1289" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1289" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="H1289" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="I1289" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="J1289" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1289" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1289" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1289" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1289" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1289" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1289" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1289" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1289" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1289" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1289" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1289" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1289" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1290" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1290" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1290" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E1290" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F1290" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1290" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1290" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1290" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1290" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1290" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1290" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1290" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1290" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="O1290" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P1290" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1290" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1290" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1290" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1290" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1290" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1290" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1291" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1291" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1291" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E1291" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F1291" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1291" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H1291" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I1291" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="J1291" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1291" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1291" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1291" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1291" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1291" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1291" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1291" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1291" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1291" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1291" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1291" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1291" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1292" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1292" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1292" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E1292" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F1292" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1292" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1292" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1292" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1292" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1292" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1292" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1292" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1292" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1292" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1292" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1292" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1292" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1292" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1292" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1292" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1292" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1293" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1293" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1293" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E1293" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F1293" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1293" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H1293" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I1293" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J1293" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1293" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1293" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1293" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1293" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="O1293" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="P1293" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="Q1293" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1293" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1293" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1293" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1293" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1293" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1294" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1294" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1294" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E1294" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F1294" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1294" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H1294" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I1294" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="J1294" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1294" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1294" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1294" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1294" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O1294" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1294" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1294" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1294" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1294" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1294" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1294" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1294" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1295" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1295" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1295" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E1295" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F1295" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G1295" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H1295" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1295" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J1295" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1295" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1295" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1295" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1295" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="O1295" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1295" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1295" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1295" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1295" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1295" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1295" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1295" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1296" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1296" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1296" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E1296" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F1296" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1296" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H1296" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="I1296" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J1296" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1296" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1296" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1296" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1296" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1296" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1296" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1296" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1296" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1296" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1296" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1296" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1296" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1297" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1297" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1297" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E1297" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F1297" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G1297" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H1297" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I1297" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J1297" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1297" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1297" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1297" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1297" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1297" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P1297" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1297" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1297" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1297" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1297" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1297" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1297" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1298" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1298" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1298" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E1298" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F1298" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="G1286" s="1" t="s">
+      <c r="G1298" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="H1286" s="1" t="s">
+      <c r="H1298" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="I1286" s="1" t="s">
+      <c r="I1298" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="J1286" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1286" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1286" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1286" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1286" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1286" s="2" t="s">
+      <c r="J1298" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1298" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1298" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1298" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1298" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1298" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P1286" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1286" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1286" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1286" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1286" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1286" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1286" s="2" t="s">
+      <c r="P1298" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1298" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1298" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1298" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1298" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1298" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1298" s="2" t="s">
         <v>33</v>
       </c>
     </row>
